--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99276793-BA2C-4694-AC08-A01F18B18D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEBC13-894B-472E-B538-AAF411E03575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Concepts</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>complete assignment s from document</t>
+  </si>
+  <si>
+    <t>Variables,instance,static,flow control</t>
+  </si>
+  <si>
+    <t>6:35AM - 7:50 AM</t>
+  </si>
+  <si>
+    <t>Revise the concepts</t>
   </si>
 </sst>
 </file>
@@ -495,7 +504,7 @@
   <dimension ref="A3:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,10 +582,18 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
+      <c r="E8" s="4">
+        <v>44970</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEBC13-894B-472E-B538-AAF411E03575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B52BF29-8CBA-4E52-809F-BD3E21B97E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Concepts</t>
   </si>
@@ -73,13 +73,25 @@
     <t>complete assignment s from document</t>
   </si>
   <si>
-    <t>Variables,instance,static,flow control</t>
-  </si>
-  <si>
     <t>6:35AM - 7:50 AM</t>
   </si>
   <si>
     <t>Revise the concepts</t>
+  </si>
+  <si>
+    <t>Variables,instance,static</t>
+  </si>
+  <si>
+    <t>eclipse installation</t>
+  </si>
+  <si>
+    <t>https://www.eclipse.org/downloads/packages/release/2020-12/r</t>
+  </si>
+  <si>
+    <t>06:35 AM-8:10 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methods,eclipse installation and usage </t>
   </si>
 </sst>
 </file>
@@ -504,7 +516,7 @@
   <dimension ref="A3:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +526,7 @@
     <col min="6" max="6" width="62.5546875" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
     <col min="8" max="8" width="45.109375" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" customWidth="1"/>
+    <col min="9" max="9" width="35.88671875" customWidth="1"/>
     <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,22 +598,32 @@
         <v>44970</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="E9" s="4">
+        <v>44971</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E10" s="4"/>
@@ -1713,9 +1735,10 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M23" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{FD119ECE-9E2E-4E1F-AB4D-5F8FD2F949A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B52BF29-8CBA-4E52-809F-BD3E21B97E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69B9E9A-F310-468C-88CF-4CB158DC4CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Concepts</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Variables,instance,static</t>
   </si>
   <si>
-    <t>eclipse installation</t>
-  </si>
-  <si>
     <t>https://www.eclipse.org/downloads/packages/release/2020-12/r</t>
   </si>
   <si>
@@ -92,6 +89,18 @@
   </si>
   <si>
     <t xml:space="preserve">methods,eclipse installation and usage </t>
+  </si>
+  <si>
+    <t>eclipse installation,complete 5 assignments from lab exercises</t>
+  </si>
+  <si>
+    <t>methods, flow control,package,import</t>
+  </si>
+  <si>
+    <t>6:35 AM-8:10 AM</t>
+  </si>
+  <si>
+    <t>work on first 5 assignment s</t>
   </si>
 </sst>
 </file>
@@ -515,17 +524,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="5.109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="62.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
-    <col min="8" max="8" width="45.109375" customWidth="1"/>
+    <col min="8" max="8" width="66.33203125" customWidth="1"/>
     <col min="9" max="9" width="35.88671875" customWidth="1"/>
     <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
@@ -613,23 +622,31 @@
         <v>44971</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="E10" s="4">
+        <v>44972</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69B9E9A-F310-468C-88CF-4CB158DC4CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49442C49-B047-49AA-9B67-42F7D6AED206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Git Links" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Concepts</t>
   </si>
@@ -101,6 +101,51 @@
   </si>
   <si>
     <t>work on first 5 assignment s</t>
+  </si>
+  <si>
+    <t>https://github.com/GUPTHAM/JAVA-TRAINING.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRIYALA ABHISHEK </t>
+  </si>
+  <si>
+    <t>https://github.com/Saminz123/AtibaFAtima.git</t>
+  </si>
+  <si>
+    <t>Atiba</t>
+  </si>
+  <si>
+    <t>scanner</t>
+  </si>
+  <si>
+    <t>commandline args,arrays,wrapper classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take emp    id,name,salary,address,mail,age  and print using command line args </t>
+  </si>
+  <si>
+    <t>Prem</t>
+  </si>
+  <si>
+    <t>https://github.com/premnarapogu/corejava-.git</t>
+  </si>
+  <si>
+    <t>6:35AM - 7:30 AM</t>
+  </si>
+  <si>
+    <t>complete all assignments which are in flow control exercises.docx</t>
+  </si>
+  <si>
+    <t>arpita</t>
+  </si>
+  <si>
+    <t>https://github.com/asgitwork/MyJavaAssignment.git</t>
+  </si>
+  <si>
+    <t>susmitha</t>
+  </si>
+  <si>
+    <t>https://github.com/sandeepsomavarapu/JavaFSD_Training_6-30-AM.git</t>
   </si>
 </sst>
 </file>
@@ -524,18 +569,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="5.109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.88671875" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
-    <col min="8" max="8" width="66.33203125" customWidth="1"/>
-    <col min="9" max="9" width="35.88671875" customWidth="1"/>
+    <col min="8" max="8" width="71.109375" customWidth="1"/>
+    <col min="9" max="9" width="68.109375" customWidth="1"/>
     <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -650,18 +695,36 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="E11" s="4">
+        <v>44973</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="E12" s="4">
+        <v>44974</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E13" s="4"/>
@@ -1753,20 +1816,71 @@
   <hyperlinks>
     <hyperlink ref="M23" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
     <hyperlink ref="I9" r:id="rId2" xr:uid="{FD119ECE-9E2E-4E1F-AB4D-5F8FD2F949A4}"/>
+    <hyperlink ref="I12" r:id="rId3" xr:uid="{548CAE75-A83E-4759-8D67-8569C4AB1486}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="E7:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="55.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{B062A044-3CE2-4FA6-AC62-B9F3584D1E57}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{25F889DF-3E96-4487-ABE1-3A63E39F2A6C}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{D924C827-A1F7-40E0-A8FC-54F8C54F4834}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49442C49-B047-49AA-9B67-42F7D6AED206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53713149-4EED-4CE0-A222-DBDAC656AB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Concepts</t>
   </si>
@@ -146,6 +146,21 @@
   </si>
   <si>
     <t>https://github.com/sandeepsomavarapu/JavaFSD_Training_6-30-AM.git</t>
+  </si>
+  <si>
+    <t>JDK,JVM,JRE</t>
+  </si>
+  <si>
+    <t>OOPS FEATURES (INHERITANCE ,POLYMORPHISAM)</t>
+  </si>
+  <si>
+    <t>Revise the concepts and attempts some mcq's</t>
+  </si>
+  <si>
+    <t>http://www.maamu.itgo.com/other/javaquiz1.htm</t>
+  </si>
+  <si>
+    <t>MCQ</t>
   </si>
 </sst>
 </file>
@@ -269,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -278,9 +293,6 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M166"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +596,14 @@
     <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="4" spans="5:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -675,7 +694,7 @@
       <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -722,34 +741,48 @@
       <c r="H12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="4">
+        <v>44977</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -763,7 +796,6 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E18" s="6"/>
-      <c r="F18" s="3"/>
       <c r="G18" s="5"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -795,7 +827,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E23" s="6"/>
@@ -803,7 +835,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -831,7 +863,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E27" s="6"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="M27" t="s">
@@ -841,91 +873,91 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E28" s="6"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E29" s="6"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E30" s="6"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E31" s="6"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E32" s="6"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E33" s="6"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E34" s="6"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E35" s="6"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E36" s="6"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E37" s="6"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E38" s="6"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E39" s="6"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E40" s="6"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -1817,9 +1849,10 @@
     <hyperlink ref="M23" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
     <hyperlink ref="I9" r:id="rId2" xr:uid="{FD119ECE-9E2E-4E1F-AB4D-5F8FD2F949A4}"/>
     <hyperlink ref="I12" r:id="rId3" xr:uid="{548CAE75-A83E-4759-8D67-8569C4AB1486}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{1D8D861E-CDBB-4089-A57B-B813ECEA241E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1827,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E7:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1841,7 +1874,7 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1849,7 +1882,7 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1857,7 +1890,7 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1865,7 +1898,7 @@
       <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1873,7 +1906,7 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53713149-4EED-4CE0-A222-DBDAC656AB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3362434-CBAF-4361-8B75-9CB5986342A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Concepts</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>MCQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-15 assignments from lab exercises </t>
+  </si>
+  <si>
+    <t>OOPS FEATURES (INHERITANCE ,differernt levels of inheritance )</t>
+  </si>
+  <si>
+    <t>6:35AM - 7:45 AM</t>
   </si>
 </sst>
 </file>
@@ -581,15 +590,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="5.109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="45.88671875" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
     <col min="8" max="8" width="71.109375" customWidth="1"/>
     <col min="9" max="9" width="68.109375" customWidth="1"/>
@@ -761,12 +770,18 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E14" s="4"/>
+      <c r="E14" s="4">
+        <v>44978</v>
+      </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3362434-CBAF-4361-8B75-9CB5986342A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A86E9B-693A-4496-AAFA-9163AC43167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Concepts</t>
   </si>
@@ -151,9 +151,6 @@
     <t>JDK,JVM,JRE</t>
   </si>
   <si>
-    <t>OOPS FEATURES (INHERITANCE ,POLYMORPHISAM)</t>
-  </si>
-  <si>
     <t>Revise the concepts and attempts some mcq's</t>
   </si>
   <si>
@@ -170,6 +167,15 @@
   </si>
   <si>
     <t>6:35AM - 7:45 AM</t>
+  </si>
+  <si>
+    <t>OOPS FEATURES (INHERITANCE ,abstraction,abstract method,concrete method)</t>
+  </si>
+  <si>
+    <t>OOPS FEATURES (IEncapsulation ,POLYMORPHISAM)</t>
+  </si>
+  <si>
+    <t>6:35AM - 8:00 AM</t>
   </si>
 </sst>
 </file>
@@ -590,15 +596,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="5.109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="6" max="6" width="68.44140625" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
     <col min="8" max="8" width="71.109375" customWidth="1"/>
     <col min="9" max="9" width="68.109375" customWidth="1"/>
@@ -607,10 +613,10 @@
   <sheetData>
     <row r="3" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="5:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
@@ -765,7 +771,7 @@
         <v>34</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -774,29 +780,37 @@
         <v>44978</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="4">
+        <v>44979</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="4"/>
-      <c r="F15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E16" s="4"/>
+      <c r="E16" s="4">
+        <v>44980</v>
+      </c>
       <c r="F16" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A86E9B-693A-4496-AAFA-9163AC43167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715575A-4284-436B-9043-0DD0FCC68073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Concepts</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>6:35AM - 8:00 AM</t>
+  </si>
+  <si>
+    <t>6:35 AM- 7:25 AM</t>
+  </si>
+  <si>
+    <t>work on lab assignments</t>
   </si>
 </sst>
 </file>
@@ -597,7 +603,7 @@
   <dimension ref="A3:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,13 +813,17 @@
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E16" s="4">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715575A-4284-436B-9043-0DD0FCC68073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7311EDA-2B33-4AB3-BDC5-2DDD2F2D9A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Concepts</t>
   </si>
@@ -172,9 +172,6 @@
     <t>OOPS FEATURES (INHERITANCE ,abstraction,abstract method,concrete method)</t>
   </si>
   <si>
-    <t>OOPS FEATURES (IEncapsulation ,POLYMORPHISAM)</t>
-  </si>
-  <si>
     <t>6:35AM - 8:00 AM</t>
   </si>
   <si>
@@ -182,6 +179,18 @@
   </si>
   <si>
     <t>work on lab assignments</t>
+  </si>
+  <si>
+    <t>OOPS FEATURES (POLYMORPHISAM)</t>
+  </si>
+  <si>
+    <t>this,super,final,constructor</t>
+  </si>
+  <si>
+    <t>6:35 AM-8:18 AM</t>
+  </si>
+  <si>
+    <t>revise the concepts</t>
   </si>
 </sst>
 </file>
@@ -603,7 +612,7 @@
   <dimension ref="A3:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,7 +813,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>44</v>
@@ -816,21 +825,29 @@
         <v>44981</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
+      <c r="E17" s="4">
+        <v>44984</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7311EDA-2B33-4AB3-BDC5-2DDD2F2D9A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF17FEB1-9A34-4BA2-AF0D-D67D85ED3FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Concepts</t>
   </si>
@@ -191,6 +191,57 @@
   </si>
   <si>
     <t>revise the concepts</t>
+  </si>
+  <si>
+    <t>public,private,protected,default,encapsulation</t>
+  </si>
+  <si>
+    <t>String,StringBuilder,StringBuffer</t>
+  </si>
+  <si>
+    <t>exception  handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multi threading </t>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>java8 features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database </t>
+  </si>
+  <si>
+    <t>jpahibernate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring </t>
+  </si>
+  <si>
+    <t>case study</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>angular</t>
+  </si>
+  <si>
+    <t>6:35 AM-7:50 AM</t>
   </si>
 </sst>
 </file>
@@ -256,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -309,12 +360,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -328,6 +390,7 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -612,7 +675,7 @@
   <dimension ref="A3:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,43 +914,64 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3"/>
+      <c r="E18" s="4">
+        <v>44985</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="4">
+        <v>44986</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E20" s="6"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E21" s="6"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E22" s="6"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E23" s="6"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -897,28 +981,36 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E26" s="6"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E27" s="6"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -928,42 +1020,54 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G28" s="10"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E29" s="6"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G29" s="10"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E30" s="6"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E31" s="6"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E32" s="6"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E33" s="6"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G33" s="10"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF17FEB1-9A34-4BA2-AF0D-D67D85ED3FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDDDAD9-5D25-4AF3-88ED-6CB902B62095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>Concepts</t>
   </si>
@@ -242,13 +242,67 @@
   </si>
   <si>
     <t>6:35 AM-7:50 AM</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>Day-1</t>
+  </si>
+  <si>
+    <t>Day-2</t>
+  </si>
+  <si>
+    <t>Day-3</t>
+  </si>
+  <si>
+    <t>Day-4</t>
+  </si>
+  <si>
+    <t>Day-5</t>
+  </si>
+  <si>
+    <t>Day-6</t>
+  </si>
+  <si>
+    <t>Day-7</t>
+  </si>
+  <si>
+    <t>Day-8</t>
+  </si>
+  <si>
+    <t>Day-9</t>
+  </si>
+  <si>
+    <t>Day-10</t>
+  </si>
+  <si>
+    <t>Day-11</t>
+  </si>
+  <si>
+    <t>Day-12</t>
+  </si>
+  <si>
+    <t>Day-13</t>
+  </si>
+  <si>
+    <t>Day-14</t>
+  </si>
+  <si>
+    <t>Day-15</t>
+  </si>
+  <si>
+    <t>String assignments ,String methods</t>
+  </si>
+  <si>
+    <t>6:35AM-7:40AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +336,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -391,6 +453,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -674,13 +737,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="5.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="68.44140625" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
@@ -689,7 +753,7 @@
     <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
         <v>43</v>
       </c>
@@ -697,7 +761,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="5:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D4" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
@@ -714,7 +781,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="E5" s="4">
         <v>44964</v>
       </c>
@@ -729,7 +799,10 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="E6" s="4">
         <v>44965</v>
       </c>
@@ -744,7 +817,10 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="E7" s="4">
         <v>44967</v>
       </c>
@@ -759,7 +835,10 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="E8" s="4">
         <v>44970</v>
       </c>
@@ -774,7 +853,10 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E9" s="4">
         <v>44971</v>
       </c>
@@ -791,7 +873,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E10" s="4">
         <v>44972</v>
       </c>
@@ -806,7 +891,10 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="E11" s="4">
         <v>44973</v>
       </c>
@@ -821,7 +909,10 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="E12" s="4">
         <v>44974</v>
       </c>
@@ -838,7 +929,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="E13" s="4">
         <v>44977</v>
       </c>
@@ -853,7 +947,10 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="E14" s="4">
         <v>44978</v>
       </c>
@@ -868,7 +965,10 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="E15" s="4">
         <v>44979</v>
       </c>
@@ -883,7 +983,10 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="E16" s="4">
         <v>44981</v>
       </c>
@@ -899,6 +1002,9 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D17" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E17" s="4">
         <v>44984</v>
       </c>
@@ -914,6 +1020,9 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D18" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="E18" s="4">
         <v>44985</v>
       </c>
@@ -930,17 +1039,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
+      <c r="D19" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E19" s="4">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="3" t="s">
         <v>57</v>
@@ -950,6 +1067,7 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="3" t="s">
         <v>58</v>
@@ -959,6 +1077,7 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="3" t="s">
         <v>59</v>
@@ -968,6 +1087,7 @@
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="3" t="s">
         <v>60</v>
@@ -980,6 +1100,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="3" t="s">
         <v>61</v>
@@ -989,6 +1110,7 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="3" t="s">
         <v>62</v>
@@ -998,6 +1120,7 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="3" t="s">
         <v>63</v>
@@ -1007,6 +1130,7 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="3" t="s">
         <v>64</v>
@@ -1019,6 +1143,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="3" t="s">
         <v>65</v>
@@ -1028,6 +1153,7 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="3" t="s">
         <v>66</v>
@@ -1037,6 +1163,7 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="3" t="s">
         <v>67</v>
@@ -1046,6 +1173,7 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="3" t="s">
         <v>68</v>
@@ -1055,6 +1183,7 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="3" t="s">
         <v>69</v>
@@ -1063,7 +1192,8 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="3" t="s">
         <v>70</v>
@@ -1072,217 +1202,235 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="3"/>
       <c r="G34" s="10"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="3"/>
       <c r="G35" s="10"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="3"/>
       <c r="G36" s="10"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="3"/>
       <c r="G37" s="10"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="3"/>
       <c r="G38" s="10"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="3"/>
       <c r="G39" s="10"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="3"/>
       <c r="G40" s="10"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D48" s="6"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D49" s="6"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D50" s="6"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D51" s="6"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDDDAD9-5D25-4AF3-88ED-6CB902B62095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC8CA12-3E69-47DA-9F05-956435AA8618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>Concepts</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>6:35AM-7:40AM</t>
+  </si>
+  <si>
+    <t>Day-16</t>
+  </si>
+  <si>
+    <t>complete pending concepts and revise</t>
   </si>
 </sst>
 </file>
@@ -738,7 +744,7 @@
   <dimension ref="A3:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,13 +1063,21 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44988</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC8CA12-3E69-47DA-9F05-956435AA8618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB73363-2F59-49D1-A929-02BF936CFC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>Concepts</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>complete pending concepts and revise</t>
+  </si>
+  <si>
+    <t>Day-17</t>
+  </si>
+  <si>
+    <t>exception handling,try ,catch,throw ,throws, finally,user defined exceptions</t>
   </si>
 </sst>
 </file>
@@ -741,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M166"/>
+  <dimension ref="A3:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,12 +1087,18 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="4">
+        <v>44992</v>
+      </c>
       <c r="F21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
@@ -1094,40 +1106,40 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="M23" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
+      <c r="M24" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1137,7 +1149,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1147,30 +1159,30 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="M27" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
+      <c r="M28" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="3"/>
@@ -1180,7 +1192,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
@@ -1190,7 +1202,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
@@ -1200,7 +1212,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
@@ -1210,7 +1222,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="3"/>
@@ -1219,7 +1231,9 @@
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G34" s="10"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -1276,7 +1290,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
@@ -1330,7 +1344,7 @@
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D48" s="6"/>
-      <c r="E48" s="3"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -1361,6 +1375,7 @@
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D52" s="6"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -2165,10 +2180,17 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
     </row>
+    <row r="167" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M23" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
+    <hyperlink ref="M24" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
     <hyperlink ref="I9" r:id="rId2" xr:uid="{FD119ECE-9E2E-4E1F-AB4D-5F8FD2F949A4}"/>
     <hyperlink ref="I12" r:id="rId3" xr:uid="{548CAE75-A83E-4759-8D67-8569C4AB1486}"/>
     <hyperlink ref="I3" r:id="rId4" xr:uid="{1D8D861E-CDBB-4089-A57B-B813ECEA241E}"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB73363-2F59-49D1-A929-02BF936CFC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D66847E-30EF-47ED-BBB9-E0865764E471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>Concepts</t>
   </si>
@@ -202,9 +202,6 @@
     <t>exception  handling</t>
   </si>
   <si>
-    <t xml:space="preserve">multi threading </t>
-  </si>
-  <si>
     <t>collections</t>
   </si>
   <si>
@@ -308,6 +305,30 @@
   </si>
   <si>
     <t>exception handling,try ,catch,throw ,throws, finally,user defined exceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASK:  invalid credentials exception </t>
+  </si>
+  <si>
+    <t>complete MCQ test and submit</t>
+  </si>
+  <si>
+    <t>Day-18</t>
+  </si>
+  <si>
+    <t>Day-19</t>
+  </si>
+  <si>
+    <t>Day-20</t>
+  </si>
+  <si>
+    <t>Day-21</t>
+  </si>
+  <si>
+    <t>rules while overiding,file IO Operations</t>
+  </si>
+  <si>
+    <t>6:35AM-7:50AM</t>
   </si>
 </sst>
 </file>
@@ -749,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +796,7 @@
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -795,7 +816,7 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4">
         <v>44964</v>
@@ -813,7 +834,7 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="4">
         <v>44965</v>
@@ -831,7 +852,7 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="4">
         <v>44967</v>
@@ -849,7 +870,7 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4">
         <v>44970</v>
@@ -867,7 +888,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4">
         <v>44971</v>
@@ -887,7 +908,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="4">
         <v>44972</v>
@@ -905,7 +926,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="4">
         <v>44973</v>
@@ -923,7 +944,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="4">
         <v>44974</v>
@@ -943,7 +964,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4">
         <v>44977</v>
@@ -961,7 +982,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="4">
         <v>44978</v>
@@ -979,7 +1000,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="4">
         <v>44979</v>
@@ -997,7 +1018,7 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="4">
         <v>44981</v>
@@ -1015,7 +1036,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="4">
         <v>44984</v>
@@ -1033,7 +1054,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="4">
         <v>44985</v>
@@ -1042,7 +1063,7 @@
         <v>55</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>54</v>
@@ -1052,7 +1073,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="4">
         <v>44987</v>
@@ -1061,16 +1082,16 @@
         <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="4">
         <v>44988</v>
@@ -1079,54 +1100,70 @@
         <v>57</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="4">
         <v>44992</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="4">
+        <v>44993</v>
+      </c>
       <c r="F22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="4">
+        <v>44994</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1136,10 +1173,12 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1149,7 +1188,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1159,7 +1198,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1169,7 +1208,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="3"/>
@@ -1182,7 +1221,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="3"/>
@@ -1192,7 +1231,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
@@ -1202,7 +1241,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
@@ -1212,7 +1251,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
@@ -1222,7 +1261,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="3"/>
@@ -1232,7 +1271,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D66847E-30EF-47ED-BBB9-E0865764E471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC54BA8-EE43-491C-A698-6A1594E348CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>Concepts</t>
   </si>
@@ -202,9 +202,6 @@
     <t>exception  handling</t>
   </si>
   <si>
-    <t>collections</t>
-  </si>
-  <si>
     <t>java8 features</t>
   </si>
   <si>
@@ -329,6 +326,12 @@
   </si>
   <si>
     <t>6:35AM-7:50AM</t>
+  </si>
+  <si>
+    <t>Serialization,de-serialization,collections</t>
+  </si>
+  <si>
+    <t>serialize and deserialize  employee using tranisent ,refer collections ppt</t>
   </si>
 </sst>
 </file>
@@ -770,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +799,7 @@
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -816,7 +819,7 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4">
         <v>44964</v>
@@ -834,7 +837,7 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4">
         <v>44965</v>
@@ -852,7 +855,7 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="4">
         <v>44967</v>
@@ -870,7 +873,7 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4">
         <v>44970</v>
@@ -888,7 +891,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4">
         <v>44971</v>
@@ -908,7 +911,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4">
         <v>44972</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="4">
         <v>44973</v>
@@ -944,7 +947,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="4">
         <v>44974</v>
@@ -964,7 +967,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="4">
         <v>44977</v>
@@ -982,7 +985,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="4">
         <v>44978</v>
@@ -1000,7 +1003,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="4">
         <v>44979</v>
@@ -1018,7 +1021,7 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="4">
         <v>44981</v>
@@ -1036,7 +1039,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="4">
         <v>44984</v>
@@ -1054,7 +1057,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="4">
         <v>44985</v>
@@ -1063,7 +1066,7 @@
         <v>55</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>54</v>
@@ -1073,7 +1076,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="4">
         <v>44987</v>
@@ -1082,16 +1085,16 @@
         <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="4">
         <v>44988</v>
@@ -1100,70 +1103,74 @@
         <v>57</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="4">
         <v>44992</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="4">
         <v>44993</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="4">
         <v>44994</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1174,11 +1181,11 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1188,7 +1195,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1198,7 +1205,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1208,7 +1215,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="3"/>
@@ -1221,7 +1228,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="3"/>
@@ -1231,7 +1238,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
@@ -1241,7 +1248,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
@@ -1251,7 +1258,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
@@ -1261,7 +1268,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="3"/>
@@ -1271,7 +1278,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC54BA8-EE43-491C-A698-6A1594E348CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638A3529-023C-4B5F-A134-B6E2F4CFB56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>Concepts</t>
   </si>
@@ -202,12 +202,6 @@
     <t>exception  handling</t>
   </si>
   <si>
-    <t>java8 features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">database </t>
-  </si>
-  <si>
     <t>jpahibernate</t>
   </si>
   <si>
@@ -328,10 +322,43 @@
     <t>6:35AM-7:50AM</t>
   </si>
   <si>
-    <t>Serialization,de-serialization,collections</t>
-  </si>
-  <si>
     <t>serialize and deserialize  employee using tranisent ,refer collections ppt</t>
+  </si>
+  <si>
+    <t>Serialization,de-serialization,collections intro</t>
+  </si>
+  <si>
+    <t>collections(List,set,map)</t>
+  </si>
+  <si>
+    <t>Collectoin methods need to complete</t>
+  </si>
+  <si>
+    <t>Day-22</t>
+  </si>
+  <si>
+    <t>Day-23</t>
+  </si>
+  <si>
+    <t>Day-24</t>
+  </si>
+  <si>
+    <t>Day-25</t>
+  </si>
+  <si>
+    <t>Day-26</t>
+  </si>
+  <si>
+    <t>collection framework,comparator,comparable</t>
+  </si>
+  <si>
+    <t>database ,case study</t>
+  </si>
+  <si>
+    <t>6:35AM-7:45AM</t>
+  </si>
+  <si>
+    <t>revise collections and practice examples with max methods</t>
   </si>
 </sst>
 </file>
@@ -771,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M167"/>
+  <dimension ref="A3:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,7 +826,7 @@
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -819,7 +846,7 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4">
         <v>44964</v>
@@ -837,7 +864,7 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="4">
         <v>44965</v>
@@ -855,7 +882,7 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4">
         <v>44967</v>
@@ -873,7 +900,7 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4">
         <v>44970</v>
@@ -891,7 +918,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="4">
         <v>44971</v>
@@ -911,7 +938,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4">
         <v>44972</v>
@@ -929,7 +956,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4">
         <v>44973</v>
@@ -947,7 +974,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4">
         <v>44974</v>
@@ -967,7 +994,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="4">
         <v>44977</v>
@@ -985,7 +1012,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" s="4">
         <v>44978</v>
@@ -1003,7 +1030,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="4">
         <v>44979</v>
@@ -1021,7 +1048,7 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4">
         <v>44981</v>
@@ -1039,7 +1066,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17" s="4">
         <v>44984</v>
@@ -1057,7 +1084,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="4">
         <v>44985</v>
@@ -1066,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>54</v>
@@ -1076,7 +1103,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="4">
         <v>44987</v>
@@ -1085,16 +1112,16 @@
         <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="4">
         <v>44988</v>
@@ -1103,77 +1130,83 @@
         <v>57</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" s="4">
         <v>44992</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E22" s="4">
         <v>44993</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" s="4">
         <v>44994</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="E24" s="4">
+        <v>44995</v>
+      </c>
       <c r="F24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="M24" s="8" t="s">
         <v>5</v>
@@ -1181,64 +1214,81 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="E25" s="4">
+        <v>44998</v>
+      </c>
       <c r="F25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="I25" s="3"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="3" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="M28" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
+      <c r="M29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
@@ -1248,7 +1298,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
@@ -1258,7 +1308,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
@@ -1268,7 +1318,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="3"/>
@@ -1278,7 +1328,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="3"/>
@@ -1287,7 +1337,9 @@
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G35" s="10"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -1344,7 +1396,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
@@ -1398,7 +1450,7 @@
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D49" s="6"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -1429,6 +1481,7 @@
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D53" s="6"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -2232,6 +2285,13 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
+    </row>
+    <row r="168" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638A3529-023C-4B5F-A134-B6E2F4CFB56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6372C76E-3FB2-4ECA-BDC6-E0C90425AE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
   <si>
     <t>Concepts</t>
   </si>
@@ -352,13 +352,19 @@
     <t>collection framework,comparator,comparable</t>
   </si>
   <si>
-    <t>database ,case study</t>
-  </si>
-  <si>
     <t>6:35AM-7:45AM</t>
   </si>
   <si>
     <t>revise collections and practice examples with max methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database </t>
+  </si>
+  <si>
+    <t>case study  using layered architecture</t>
+  </si>
+  <si>
+    <t>understand layered architecture,ppt</t>
   </si>
 </sst>
 </file>
@@ -798,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M168"/>
+  <dimension ref="A3:M169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,10 +1229,10 @@
         <v>107</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="I25" s="3"/>
       <c r="M25" s="8"/>
@@ -1235,13 +1241,20 @@
       <c r="D26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="4">
+        <v>44999</v>
+      </c>
       <c r="F26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="I26" s="3"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="6" t="s">
@@ -1249,7 +1262,7 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="3" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1261,7 +1274,7 @@
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1273,14 +1286,11 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="M29" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
@@ -1288,17 +1298,20 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
+      <c r="M30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
@@ -1308,7 +1321,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
@@ -1318,7 +1331,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="3"/>
@@ -1328,7 +1341,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="3"/>
@@ -1338,7 +1351,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="3"/>
@@ -1347,7 +1360,9 @@
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G36" s="10"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1404,7 +1419,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
@@ -1458,7 +1473,7 @@
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D50" s="6"/>
-      <c r="E50" s="3"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -1489,6 +1504,7 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D54" s="6"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2292,6 +2308,13 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6372C76E-3FB2-4ECA-BDC6-E0C90425AE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E20686-E55F-47D2-A2E1-F7BBAF6F94B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
   <si>
     <t>Concepts</t>
   </si>
@@ -202,9 +202,6 @@
     <t>exception  handling</t>
   </si>
   <si>
-    <t>jpahibernate</t>
-  </si>
-  <si>
     <t xml:space="preserve">spring </t>
   </si>
   <si>
@@ -358,13 +355,43 @@
     <t>revise collections and practice examples with max methods</t>
   </si>
   <si>
-    <t xml:space="preserve">database </t>
-  </si>
-  <si>
     <t>case study  using layered architecture</t>
   </si>
   <si>
     <t>understand layered architecture,ppt</t>
+  </si>
+  <si>
+    <t>jdbc</t>
+  </si>
+  <si>
+    <t>multi threading</t>
+  </si>
+  <si>
+    <t>, Database</t>
+  </si>
+  <si>
+    <t>Day-27</t>
+  </si>
+  <si>
+    <t>Day-28</t>
+  </si>
+  <si>
+    <t>Day-29</t>
+  </si>
+  <si>
+    <t>Day-30</t>
+  </si>
+  <si>
+    <t>Day-31</t>
+  </si>
+  <si>
+    <t>Day-32</t>
+  </si>
+  <si>
+    <t>Day-33</t>
+  </si>
+  <si>
+    <t>work on bank application submit by Monday</t>
   </si>
 </sst>
 </file>
@@ -804,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M169"/>
+  <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,7 +859,7 @@
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -852,7 +879,7 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4">
         <v>44964</v>
@@ -870,7 +897,7 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4">
         <v>44965</v>
@@ -888,7 +915,7 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="4">
         <v>44967</v>
@@ -906,7 +933,7 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4">
         <v>44970</v>
@@ -924,7 +951,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4">
         <v>44971</v>
@@ -944,7 +971,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4">
         <v>44972</v>
@@ -962,7 +989,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4">
         <v>44973</v>
@@ -980,7 +1007,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="4">
         <v>44974</v>
@@ -1000,7 +1027,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4">
         <v>44977</v>
@@ -1018,7 +1045,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4">
         <v>44978</v>
@@ -1036,7 +1063,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="4">
         <v>44979</v>
@@ -1054,7 +1081,7 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="4">
         <v>44981</v>
@@ -1072,7 +1099,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="4">
         <v>44984</v>
@@ -1090,7 +1117,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="4">
         <v>44985</v>
@@ -1099,7 +1126,7 @@
         <v>55</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>54</v>
@@ -1109,7 +1136,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="4">
         <v>44987</v>
@@ -1118,16 +1145,16 @@
         <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="4">
         <v>44988</v>
@@ -1136,82 +1163,82 @@
         <v>57</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="4">
         <v>44992</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="4">
         <v>44993</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="4">
         <v>44994</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="4">
         <v>44995</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="I24" s="3"/>
       <c r="M24" s="8" t="s">
@@ -1220,73 +1247,83 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="4">
         <v>44998</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="I25" s="3"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="4">
         <v>44999</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I26" s="3"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="E27" s="4">
+        <v>45000</v>
+      </c>
       <c r="F27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="E28" s="4">
+        <v>45001</v>
+      </c>
       <c r="F28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="3" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1294,83 +1331,99 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="10"/>
+        <v>111</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="M30" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
+      <c r="M32" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G37" s="10"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1378,7 +1431,9 @@
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G38" s="10"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1427,7 +1482,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
@@ -1435,7 +1490,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
@@ -1481,7 +1536,7 @@
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D51" s="6"/>
-      <c r="E51" s="3"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -1489,7 +1544,7 @@
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D52" s="6"/>
-      <c r="E52" s="3"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -1512,6 +1567,7 @@
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D55" s="6"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -1519,6 +1575,7 @@
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D56" s="6"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2315,6 +2372,20 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E20686-E55F-47D2-A2E1-F7BBAF6F94B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57F93B-2F05-46D7-87D2-243484C7BF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
   <si>
     <t>Concepts</t>
   </si>
@@ -202,9 +202,6 @@
     <t>exception  handling</t>
   </si>
   <si>
-    <t xml:space="preserve">spring </t>
-  </si>
-  <si>
     <t>case study</t>
   </si>
   <si>
@@ -361,15 +358,9 @@
     <t>understand layered architecture,ppt</t>
   </si>
   <si>
-    <t>jdbc</t>
-  </si>
-  <si>
     <t>multi threading</t>
   </si>
   <si>
-    <t>, Database</t>
-  </si>
-  <si>
     <t>Day-27</t>
   </si>
   <si>
@@ -392,6 +383,24 @@
   </si>
   <si>
     <t>work on bank application submit by Monday</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>download mysql and practice query's</t>
+  </si>
+  <si>
+    <t>6:35 AM-7:45AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDBC </t>
+  </si>
+  <si>
+    <t>6:40 AM-7:25AM</t>
+  </si>
+  <si>
+    <t>practice JDBC CRUD</t>
   </si>
 </sst>
 </file>
@@ -833,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,7 +868,7 @@
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -879,7 +888,7 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4">
         <v>44964</v>
@@ -897,7 +906,7 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4">
         <v>44965</v>
@@ -915,7 +924,7 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4">
         <v>44967</v>
@@ -933,7 +942,7 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="4">
         <v>44970</v>
@@ -951,7 +960,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4">
         <v>44971</v>
@@ -971,7 +980,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4">
         <v>44972</v>
@@ -989,7 +998,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4">
         <v>44973</v>
@@ -1007,7 +1016,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4">
         <v>44974</v>
@@ -1027,7 +1036,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="4">
         <v>44977</v>
@@ -1045,7 +1054,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4">
         <v>44978</v>
@@ -1063,7 +1072,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="4">
         <v>44979</v>
@@ -1081,7 +1090,7 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="4">
         <v>44981</v>
@@ -1099,7 +1108,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="4">
         <v>44984</v>
@@ -1117,7 +1126,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4">
         <v>44985</v>
@@ -1126,7 +1135,7 @@
         <v>55</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>54</v>
@@ -1136,7 +1145,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="4">
         <v>44987</v>
@@ -1145,16 +1154,16 @@
         <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="4">
         <v>44988</v>
@@ -1163,82 +1172,82 @@
         <v>57</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="4">
         <v>44992</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="4">
         <v>44993</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="4">
         <v>44994</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" s="4">
         <v>44995</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="I24" s="3"/>
       <c r="M24" s="8" t="s">
@@ -1247,119 +1256,135 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="4">
         <v>44998</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="I25" s="3"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4">
         <v>44999</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="I26" s="3"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="4">
         <v>45000</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28" s="4">
         <v>45001</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="E29" s="4">
+        <v>45002</v>
+      </c>
       <c r="F29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="E30" s="4">
+        <v>45006</v>
+      </c>
       <c r="F30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E31" s="4">
+        <v>45007</v>
+      </c>
       <c r="F31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D32" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
@@ -1370,11 +1395,11 @@
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="3"/>
@@ -1382,11 +1407,11 @@
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="3"/>
@@ -1394,11 +1419,11 @@
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="3"/>
@@ -1406,11 +1431,11 @@
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="3"/>
@@ -1418,11 +1443,11 @@
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="3"/>
@@ -1432,7 +1457,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57F93B-2F05-46D7-87D2-243484C7BF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34797D99-FFB1-4846-B0E2-A5A72A372ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="128">
   <si>
     <t>Concepts</t>
   </si>
@@ -205,9 +205,6 @@
     <t>case study</t>
   </si>
   <si>
-    <t>html</t>
-  </si>
-  <si>
     <t>css</t>
   </si>
   <si>
@@ -401,6 +398,18 @@
   </si>
   <si>
     <t>practice JDBC CRUD</t>
+  </si>
+  <si>
+    <t>Jpa and hibernate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jpa hibernate with jpql </t>
+  </si>
+  <si>
+    <t>06:40AM-7:35Am</t>
+  </si>
+  <si>
+    <t>Refer JPQL CRUD</t>
   </si>
 </sst>
 </file>
@@ -843,7 +852,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,7 +877,7 @@
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -888,7 +897,7 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4">
         <v>44964</v>
@@ -906,7 +915,7 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="4">
         <v>44965</v>
@@ -924,7 +933,7 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4">
         <v>44967</v>
@@ -942,7 +951,7 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4">
         <v>44970</v>
@@ -960,7 +969,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="4">
         <v>44971</v>
@@ -980,7 +989,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4">
         <v>44972</v>
@@ -998,7 +1007,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4">
         <v>44973</v>
@@ -1016,7 +1025,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="4">
         <v>44974</v>
@@ -1036,7 +1045,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4">
         <v>44977</v>
@@ -1054,7 +1063,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4">
         <v>44978</v>
@@ -1072,7 +1081,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4">
         <v>44979</v>
@@ -1090,7 +1099,7 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="4">
         <v>44981</v>
@@ -1108,7 +1117,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="4">
         <v>44984</v>
@@ -1126,7 +1135,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="4">
         <v>44985</v>
@@ -1135,7 +1144,7 @@
         <v>55</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>54</v>
@@ -1145,7 +1154,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="4">
         <v>44987</v>
@@ -1154,16 +1163,16 @@
         <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="4">
         <v>44988</v>
@@ -1172,82 +1181,82 @@
         <v>57</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="4">
         <v>44992</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4">
         <v>44993</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="4">
         <v>44994</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="4">
         <v>44995</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="I24" s="3"/>
       <c r="M24" s="8" t="s">
@@ -1256,45 +1265,45 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="4">
         <v>44998</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="I25" s="3"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="4">
         <v>44999</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="I26" s="3"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4">
         <v>45000</v>
@@ -1303,90 +1312,94 @@
         <v>58</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="4">
         <v>45001</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" s="4">
         <v>45002</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="4">
         <v>45006</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" s="4">
         <v>45007</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D32" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E32" s="4">
+        <v>45008</v>
+      </c>
       <c r="F32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="10"/>
+        <v>124</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="M32" t="s">
@@ -1395,23 +1408,29 @@
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="E33" s="4">
+        <v>45009</v>
+      </c>
       <c r="F33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="3"/>
@@ -1419,11 +1438,11 @@
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="3"/>
@@ -1431,11 +1450,11 @@
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="3"/>
@@ -1443,11 +1462,11 @@
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="3"/>
@@ -1457,7 +1476,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34797D99-FFB1-4846-B0E2-A5A72A372ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A043CB-21B9-4146-80A6-253F38A8D12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="126">
   <si>
     <t>Concepts</t>
   </si>
@@ -205,21 +205,6 @@
     <t>case study</t>
   </si>
   <si>
-    <t>css</t>
-  </si>
-  <si>
-    <t>js</t>
-  </si>
-  <si>
-    <t>ts</t>
-  </si>
-  <si>
-    <t>bs</t>
-  </si>
-  <si>
-    <t>angular</t>
-  </si>
-  <si>
     <t>6:35 AM-7:50 AM</t>
   </si>
   <si>
@@ -410,6 +395,15 @@
   </si>
   <si>
     <t>Refer JPQL CRUD</t>
+  </si>
+  <si>
+    <t>jpa case study, maven</t>
+  </si>
+  <si>
+    <t>6:00PM-7:00PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refer employee Crud ,complete student crud using layered architecture </t>
   </si>
 </sst>
 </file>
@@ -852,7 +846,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,7 +871,7 @@
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -897,7 +891,7 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E5" s="4">
         <v>44964</v>
@@ -915,7 +909,7 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4">
         <v>44965</v>
@@ -933,7 +927,7 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4">
         <v>44967</v>
@@ -951,7 +945,7 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4">
         <v>44970</v>
@@ -969,7 +963,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4">
         <v>44971</v>
@@ -989,7 +983,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4">
         <v>44972</v>
@@ -1007,7 +1001,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E11" s="4">
         <v>44973</v>
@@ -1025,7 +1019,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4">
         <v>44974</v>
@@ -1045,7 +1039,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E13" s="4">
         <v>44977</v>
@@ -1063,7 +1057,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E14" s="4">
         <v>44978</v>
@@ -1081,7 +1075,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4">
         <v>44979</v>
@@ -1099,7 +1093,7 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4">
         <v>44981</v>
@@ -1117,7 +1111,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E17" s="4">
         <v>44984</v>
@@ -1135,7 +1129,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E18" s="4">
         <v>44985</v>
@@ -1144,7 +1138,7 @@
         <v>55</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>54</v>
@@ -1154,7 +1148,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E19" s="4">
         <v>44987</v>
@@ -1163,16 +1157,16 @@
         <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4">
         <v>44988</v>
@@ -1181,82 +1175,82 @@
         <v>57</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E21" s="4">
         <v>44992</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E22" s="4">
         <v>44993</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E23" s="4">
         <v>44994</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E24" s="4">
         <v>44995</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I24" s="3"/>
       <c r="M24" s="8" t="s">
@@ -1265,45 +1259,45 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E25" s="4">
         <v>44998</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I25" s="3"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E26" s="4">
         <v>44999</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I26" s="3"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E27" s="4">
         <v>45000</v>
@@ -1312,93 +1306,93 @@
         <v>58</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E28" s="4">
         <v>45001</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E29" s="4">
         <v>45002</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E30" s="4">
         <v>45006</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E31" s="4">
         <v>45007</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D32" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E32" s="4">
         <v>45008</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1408,66 +1402,70 @@
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E33" s="4">
         <v>45009</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="E34" s="4">
+        <v>45010</v>
+      </c>
       <c r="F34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E35" s="4">
+        <v>45011</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="10"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E36" s="4">
+        <v>45012</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="10"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="10"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1475,9 +1473,7 @@
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="10"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A043CB-21B9-4146-80A6-253F38A8D12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B40BB-0E68-401E-9BF9-89E119F2FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
   <si>
     <t>Concepts</t>
   </si>
@@ -404,6 +404,12 @@
   </si>
   <si>
     <t xml:space="preserve">Refer employee Crud ,complete student crud using layered architecture </t>
+  </si>
+  <si>
+    <t>Spring intro</t>
+  </si>
+  <si>
+    <t>refer spring core example</t>
   </si>
 </sst>
 </file>
@@ -846,7 +852,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,7 +1429,7 @@
         <v>108</v>
       </c>
       <c r="E34" s="4">
-        <v>45010</v>
+        <v>45012</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>123</v>
@@ -1441,11 +1447,17 @@
         <v>109</v>
       </c>
       <c r="E35" s="4">
-        <v>45011</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="3"/>
+        <v>45014</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B40BB-0E68-401E-9BF9-89E119F2FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DDB71C-A04A-4B1E-84D3-F4EC5CD40FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="130">
   <si>
     <t>Concepts</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>refer spring core example</t>
+  </si>
+  <si>
+    <t>spring core setter and constructor injection autowiring</t>
+  </si>
+  <si>
+    <t>complete spring core with given examples</t>
   </si>
 </sst>
 </file>
@@ -852,7 +858,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,11 +1471,17 @@
         <v>110</v>
       </c>
       <c r="E36" s="4">
-        <v>45012</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="3"/>
+        <v>45015</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DDB71C-A04A-4B1E-84D3-F4EC5CD40FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC699BC-7282-4502-8667-9D455FF7C3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
   <si>
     <t>Concepts</t>
   </si>
@@ -412,10 +412,19 @@
     <t>refer spring core example</t>
   </si>
   <si>
-    <t>spring core setter and constructor injection autowiring</t>
-  </si>
-  <si>
     <t>complete spring core with given examples</t>
+  </si>
+  <si>
+    <t>6:15 PM-7:15 PM</t>
+  </si>
+  <si>
+    <t>SPRING CORE ANNOTATIONS</t>
+  </si>
+  <si>
+    <t>spring core setter and constructor injection autowiring,MAVEN</t>
+  </si>
+  <si>
+    <t>Spring core with annotations</t>
   </si>
 </sst>
 </file>
@@ -858,7 +867,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1474,13 +1483,13 @@
         <v>45015</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>124</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I36" s="3"/>
     </row>
@@ -1488,10 +1497,18 @@
       <c r="D37" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="3"/>
+      <c r="E37" s="4">
+        <v>45016</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC699BC-7282-4502-8667-9D455FF7C3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3CFE12-B5D2-40B9-9E94-1CAD7DBD3BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
   <si>
     <t>Concepts</t>
   </si>
@@ -425,6 +425,30 @@
   </si>
   <si>
     <t>Spring core with annotations</t>
+  </si>
+  <si>
+    <t>Day-34</t>
+  </si>
+  <si>
+    <t>Day-35</t>
+  </si>
+  <si>
+    <t>Day-36</t>
+  </si>
+  <si>
+    <t>MAVEN,AUTOWIRED,JAVA CONFIG</t>
+  </si>
+  <si>
+    <t>6:00PM-6:45 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLETE SPRING CORE MODULES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring jdbc,spring jpa,spring mvc </t>
+  </si>
+  <si>
+    <t>spring rest,spring boot rest</t>
   </si>
 </sst>
 </file>
@@ -866,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,25 +1536,47 @@
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="3"/>
+      <c r="D38" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="4">
+        <v>45017</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45018</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="G39" s="10"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="3"/>
+      <c r="D40" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="4">
+        <v>45019</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="G40" s="10"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3CFE12-B5D2-40B9-9E94-1CAD7DBD3BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA57CE4-7FC7-44F5-A882-B84FF62F68D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
   <si>
     <t>Concepts</t>
   </si>
@@ -445,10 +445,31 @@
     <t xml:space="preserve">COMPLETE SPRING CORE MODULES </t>
   </si>
   <si>
-    <t xml:space="preserve">spring jdbc,spring jpa,spring mvc </t>
-  </si>
-  <si>
-    <t>spring rest,spring boot rest</t>
+    <t>Day-37</t>
+  </si>
+  <si>
+    <t>Case Study</t>
+  </si>
+  <si>
+    <t>spring jdbc,spring jpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring rest,spring boot rest,spring mvc </t>
+  </si>
+  <si>
+    <t>6:05PM-7:00Pm</t>
+  </si>
+  <si>
+    <t>complete spring JPA integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back end done </t>
+  </si>
+  <si>
+    <t>6:00PM-7:15PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring mvc </t>
   </si>
 </sst>
 </file>
@@ -891,7 +912,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,7 +1561,7 @@
         <v>133</v>
       </c>
       <c r="E38" s="4">
-        <v>45017</v>
+        <v>45019</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>136</v>
@@ -1558,13 +1579,17 @@
         <v>134</v>
       </c>
       <c r="E39" s="4">
-        <v>45018</v>
+        <v>45020</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
@@ -1572,21 +1597,33 @@
         <v>135</v>
       </c>
       <c r="E40" s="4">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="4">
+        <v>45023</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="3"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\RAJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA57CE4-7FC7-44F5-A882-B84FF62F68D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB0023-D490-4317-A744-5EFB0CFD214D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="158">
   <si>
     <t>Concepts</t>
   </si>
@@ -448,9 +448,6 @@
     <t>Day-37</t>
   </si>
   <si>
-    <t>Case Study</t>
-  </si>
-  <si>
     <t>spring jdbc,spring jpa</t>
   </si>
   <si>
@@ -470,6 +467,39 @@
   </si>
   <si>
     <t xml:space="preserve">spring mvc </t>
+  </si>
+  <si>
+    <t>Day-38</t>
+  </si>
+  <si>
+    <t>Day-39</t>
+  </si>
+  <si>
+    <t>Day-40</t>
+  </si>
+  <si>
+    <t>Day-41</t>
+  </si>
+  <si>
+    <t>Day-42</t>
+  </si>
+  <si>
+    <t>Day-43</t>
+  </si>
+  <si>
+    <t>Css</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Spring Boot,spring Rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Case Study,postman </t>
   </si>
 </sst>
 </file>
@@ -911,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,13 +1612,13 @@
         <v>45020</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G39" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="I39" s="3"/>
     </row>
@@ -1600,13 +1630,13 @@
         <v>45022</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="I40" s="3"/>
     </row>
@@ -1615,51 +1645,77 @@
         <v>139</v>
       </c>
       <c r="E41" s="4">
-        <v>45023</v>
+        <v>45026</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="4">
+        <v>45027</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="G42" s="10"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="3"/>
+      <c r="D43" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45028</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45029</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="3"/>
+      <c r="D45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="4">
+        <v>45030</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="E46" s="6"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1667,7 +1723,9 @@
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
